--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestDynamicPanelAfterRenderEvent.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestDynamicPanelAfterRenderEvent.xlsx
@@ -106,7 +106,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -119,7 +119,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -428,19 +428,19 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="E2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -448,12 +448,14 @@
       <x:c r="B3" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="b">
+      <x:c r="D3" s="1" t="b">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="E3" s="1" t="s"/>
+      <x:c r="F3" s="1" t="s"/>
       <x:c r="G3" s="2" t="n">
         <x:v>523635.93</x:v>
       </x:c>
@@ -462,16 +464,16 @@
       <x:c r="B4" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="b">
+      <x:c r="D4" s="1" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="F4" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s"/>
@@ -480,10 +482,12 @@
       <x:c r="B5" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="D5" s="1" t="s"/>
+      <x:c r="E5" s="1" t="s"/>
+      <x:c r="F5" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G5" s="2" t="n">
@@ -492,6 +496,10 @@
     </x:row>
     <x:row r="6" spans="1:17">
       <x:c r="B6" s="1" t="s"/>
+      <x:c r="C6" s="1" t="s"/>
+      <x:c r="D6" s="1" t="s"/>
+      <x:c r="E6" s="1" t="s"/>
+      <x:c r="F6" s="1" t="s"/>
       <x:c r="G6" s="2" t="n">
         <x:v>623636.4832</x:v>
       </x:c>

--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestDynamicPanelAfterRenderEvent.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestDynamicPanelAfterRenderEvent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -55,7 +55,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,0.00"/>
+    <x:numFmt numFmtId="164" formatCode="#,0.00"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -76,7 +76,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFD0E35"/>
-        <x:bgColor rgb="FFFD0E35"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -106,7 +105,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -119,7 +118,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -418,13 +417,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Q6"/>
+  <x:dimension ref="A1:L6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:17">
+    <x:row r="2" spans="1:12">
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -444,8 +443,8 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:17">
-      <x:c r="B3" s="1" t="n">
+    <x:row r="3" spans="1:12">
+      <x:c r="B3" s="1">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
@@ -454,14 +453,14 @@
       <x:c r="D3" s="1" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
-      <x:c r="G3" s="2" t="n">
+      <x:c r="E3" s="1"/>
+      <x:c r="F3" s="1"/>
+      <x:c r="G3" s="2">
         <x:v>523635.93</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:17">
-      <x:c r="B4" s="1" t="n">
+    <x:row r="4" spans="1:12">
+      <x:c r="B4" s="1">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
@@ -470,37 +469,37 @@
       <x:c r="D4" s="1" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="1" t="n">
+      <x:c r="E4" s="1">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G4" s="2" t="s"/>
+      <x:c r="G4" s="2"/>
     </x:row>
-    <x:row r="5" spans="1:17">
-      <x:c r="B5" s="1" t="n">
+    <x:row r="5" spans="1:12">
+      <x:c r="B5" s="1">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D5" s="1" t="s"/>
-      <x:c r="E5" s="1" t="s"/>
+      <x:c r="D5" s="1"/>
+      <x:c r="E5" s="1"/>
       <x:c r="F5" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="n">
+      <x:c r="G5" s="2">
         <x:v>100000.5532</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:17">
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
-      <x:c r="E6" s="1" t="s"/>
-      <x:c r="F6" s="1" t="s"/>
-      <x:c r="G6" s="2" t="n">
+    <x:row r="6" spans="1:12">
+      <x:c r="B6" s="1"/>
+      <x:c r="C6" s="1"/>
+      <x:c r="D6" s="1"/>
+      <x:c r="E6" s="1"/>
+      <x:c r="F6" s="1"/>
+      <x:c r="G6" s="2">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>
